--- a/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF66AD8-271C-45C7-9E25-CDA6FB4E391F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9B42CF-9452-40ED-B60E-78E3C5137048}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" activeTab="2" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="コンピューテーショナルフォトグラフィ" sheetId="2" r:id="rId1"/>
-    <sheet name="ライトフィールドカメラ" sheetId="3" r:id="rId2"/>
-    <sheet name="ボケ関数" sheetId="4" r:id="rId3"/>
-    <sheet name="写真測量" sheetId="5" r:id="rId4"/>
+    <sheet name="不明単語リスト" sheetId="6" r:id="rId1"/>
+    <sheet name="コンピューテーショナルフォトグラフィ" sheetId="2" r:id="rId2"/>
+    <sheet name="ライトフィールドカメラ" sheetId="3" r:id="rId3"/>
+    <sheet name="ボケ関数" sheetId="4" r:id="rId4"/>
+    <sheet name="従来の三次元計測手法" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="125">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -362,6 +363,423 @@
   </si>
   <si>
     <t>http://www.ime.info.hiroshima-cu.ac.jp/~hiura/intro/cp-intro.pdf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多視点映像からLight Fieldへの展開</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報・システムソサイエティ誌 第22巻第3号</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画素配列を考慮したLight Field Camera画像の高解像度化</t>
+    <rPh sb="0" eb="2">
+      <t>ガソ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>カイゾウド</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトフィールドからの煙の空間濃度分布推定</t>
+    <rPh sb="11" eb="12">
+      <t>ケムリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ノウド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Plenoptic原理を用いた裸眼立体ディスプレイ</t>
+    <rPh sb="9" eb="11">
+      <t>ゲンリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ラガン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The Focused Plenoptic Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Light Field Photography with a Hand-held Plenoptic Camera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Light Fields and Computational Imaging</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Programmable Aperture Photography: Multiplexed Light Field Acquisition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Light Field Rendering</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.jstage.jst.go.jp/article/itetr/36.12/0/36.12_17/_pdf/-char/ja</t>
+  </si>
+  <si>
+    <t>https://www.jstage.jst.go.jp/article/itej/70/7/70_J146/_pdf/-char/ja</t>
+  </si>
+  <si>
+    <t>http://www.tgeorgiev.net/FocusedPlenoptic.pdf</t>
+  </si>
+  <si>
+    <t>https://graphics.stanford.edu/papers/lfcamera/lfcamera-150dpi.pdf</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=1673328</t>
+  </si>
+  <si>
+    <t>http://chiakailiang.org/pap/pdf/sig08_preprint.pdf</t>
+  </si>
+  <si>
+    <t>https://graphics.stanford.edu/papers/light/light-lores-corrected.pdf</t>
+  </si>
+  <si>
+    <t>SUPER-RESOLUTION IMAGE SYNTHESIS USING THE PHYSICAL PIXEL ARRANGEMENT OF A LIGHT FIELD CAMERA</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=7351346</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/da3e/e03d2826e01a13730a716d175028f57212fb.pdf</t>
+  </si>
+  <si>
+    <t>ライトフィールドカメラ参考資料</t>
+    <rPh sb="11" eb="13">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LFC-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再サンプル</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケーリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再構成型超解像</t>
+    <rPh sb="0" eb="3">
+      <t>サイコウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近傍補間</t>
+    <rPh sb="0" eb="2">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーフィルタアレー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Light Field Toolbox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自由視点画像</t>
+    <rPh sb="0" eb="2">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.jstage.jst.go.jp/article/itetr/33.31/0/33.31_13/_pdf/-char/ja</t>
+  </si>
+  <si>
+    <t>デプス推定</t>
+    <rPh sb="3" eb="5">
+      <t>スイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.toshiba.co.jp/tech/review/2014/11/69_11pdf/f01.pdf</t>
+  </si>
+  <si>
+    <t>デジタルリフォーカス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リサンプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AHDアルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://ir.c.chuo-u.ac.jp/repository/search/binary/p/3281/s/982/</t>
+  </si>
+  <si>
+    <t>VNGアルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://sites.google.com/site/freerawconverter/Home/whats_raw</t>
+  </si>
+  <si>
+    <t>VNGアルゴリズム、AHDアルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デモザイキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://wa3.i-3-i.info/word13227.html</t>
+  </si>
+  <si>
+    <t>逆多重化</t>
+    <rPh sb="0" eb="1">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>タジュウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連語</t>
+    <rPh sb="0" eb="2">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出典</t>
+    <rPh sb="0" eb="2">
+      <t>シュッテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単語</t>
+    <rPh sb="0" eb="2">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明単語リスト</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加日時</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MATLAB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックマッチング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多視点ステレオ法</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.esrij.com/gis-guide/imagery/resampling/</t>
+  </si>
+  <si>
+    <t>https://www.jstage.jst.go.jp/article/ieejeiss1987/121/10/121_10_1493/_pdf</t>
+  </si>
+  <si>
+    <t>エネルギー関数</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニアレストネイバー補間</t>
+    <rPh sb="9" eb="11">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップサンプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Point Spread Function</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LFC-14</t>
+  </si>
+  <si>
+    <t>オクルージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブサンプリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双線形補間</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADMM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勾配法</t>
+    <rPh sb="0" eb="2">
+      <t>コウバイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,12 +820,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -427,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,13 +874,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -772,18 +1205,508 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3AE60-3DA8-40EF-ABC4-1B11B8CD0B19}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="23.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43199</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="9">
+        <v>43200</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="9">
+        <v>43200</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9">
+        <v>43200</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="9">
+        <v>43200</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="9">
+        <v>43200</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="9">
+        <v>43201</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B98AAD3-EF24-4168-8BE4-050B6A413801}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="68.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -839,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -853,7 +1776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -965,7 +1888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -979,7 +1902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1014,18 +1937,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42845210-D513-453D-ADDF-DA6DCCD60533}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="68.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="109.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1033,7 +1956,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -1067,7 +1990,7 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1084,7 +2007,7 @@
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -1099,7 +2022,7 @@
       <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -1114,7 +2037,7 @@
       <c r="D6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -1129,7 +2052,7 @@
       <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -1144,7 +2067,7 @@
       <c r="D8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
@@ -1198,7 +2121,7 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1212,7 +2135,7 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
@@ -1229,11 +2152,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="6">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1242,6 +2171,124 @@
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1258,11 +2305,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285FAA71-71B7-4891-A30F-3304A2FBE70F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1305,7 +2352,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
@@ -1314,7 +2361,7 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -1323,7 +2370,7 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -1332,7 +2379,7 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -1341,7 +2388,7 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -1350,7 +2397,7 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
@@ -1383,7 +2430,7 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
@@ -1392,7 +2439,7 @@
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
@@ -1428,12 +2475,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79B41F5-DFA6-40C5-B71C-2815901F335F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1475,7 +2522,7 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
@@ -1484,7 +2531,7 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -1493,7 +2540,7 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -1502,7 +2549,7 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -1511,7 +2558,7 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -1520,7 +2567,7 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6">

--- a/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9B42CF-9452-40ED-B60E-78E3C5137048}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBBEE6D-43DC-419B-84E5-9E00074F4023}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" activeTab="3" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="不明単語リスト" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="142">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -781,6 +781,79 @@
       <t>ホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼけ関数参考資料</t>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Depth from Defocus: A Spatial Domain Approach</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007%2FBF02028349.pdf</t>
+  </si>
+  <si>
+    <t>https://ac.els-cdn.com/S003132031100094X/1-s2.0-S003132031100094X-main.pdf?_tid=a0862606-3098-4099-badd-e752f76d5577&amp;acdnat=1527666114_9be83ae4a2e5c561070eb109db785e38</t>
+  </si>
+  <si>
+    <t>Defocus map estimation from a single image</t>
+  </si>
+  <si>
+    <t>ガウシアン・カーネル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぼけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平滑化画像</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイカツカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Canny Edge Detector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Joint Bilateral Filter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matting Laplacian</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rational Filters for Passive Depth from Defocus</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1023%2FA%3A1007905828438.pdf</t>
+  </si>
+  <si>
+    <t>Depth from Defocus vs. Stereo: How Different Really Are They?</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1023%2FA%3A1008175127327.pdf</t>
+  </si>
+  <si>
+    <t>Depth estimation and image restoration using defocused stereo pairs</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=1335456</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D3AE60-3DA8-40EF-ABC4-1B11B8CD0B19}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1618,25 +1691,55 @@
       <c r="A28" s="4">
         <v>26</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>27</v>
       </c>
+      <c r="B29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>28</v>
       </c>
+      <c r="B30" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>29</v>
       </c>
+      <c r="B31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
@@ -2309,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285FAA71-71B7-4891-A30F-3304A2FBE70F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2324,7 +2427,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -2352,6 +2455,12 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2361,6 +2470,12 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2370,6 +2485,12 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2379,6 +2500,12 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2387,6 +2514,12 @@
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -2471,7 +2604,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBBEE6D-43DC-419B-84E5-9E00074F4023}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD11761-01C5-4A8B-BF61-2756592D59D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" activeTab="3" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
   </bookViews>
@@ -302,9 +302,6 @@
     <t>構造化ライトフィールドによる高速距離画像計測</t>
   </si>
   <si>
-    <t>http://www.cc.kyoto-su.ac.jp/~kano/pdf/study/student/NakajimaPaper.pdf</t>
-  </si>
-  <si>
     <t>ライトフィールドカメラLytroにおける高速なリフォーカスと被写界深度の制御</t>
   </si>
   <si>
@@ -854,6 +851,10 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=1335456</t>
+  </si>
+  <si>
+    <t>http://www.cc.kyoto-su.ac.jp/~kano/pdf/study/student/NakajimaPaper.pdf</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -924,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,6 +964,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1298,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1306,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
@@ -1326,16 +1330,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="9">
         <v>43199</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1343,19 +1347,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="9">
         <v>43199</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -1363,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="9">
         <v>43199</v>
@@ -1372,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1380,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9">
         <v>43199</v>
@@ -1395,16 +1399,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9">
         <v>43199</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -1412,16 +1416,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="9">
         <v>43199</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -1429,16 +1433,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="9">
         <v>43199</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -1446,16 +1450,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="9">
         <v>43199</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1463,16 +1467,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="9">
         <v>43199</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1480,13 +1484,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="9">
         <v>43200</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1494,13 +1498,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="9">
         <v>43200</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1508,13 +1512,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="9">
         <v>43200</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1522,13 +1526,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="9">
         <v>43200</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1536,13 +1540,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="9">
         <v>43200</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1550,13 +1554,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="9">
         <v>43201</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -1564,13 +1568,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="9">
         <v>43201</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -1578,13 +1582,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="9">
         <v>43201</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -1592,13 +1596,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="9">
         <v>43201</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -1606,13 +1610,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="9">
         <v>43201</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -1620,13 +1624,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="9">
         <v>43201</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -1634,13 +1638,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="9">
         <v>43201</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -1648,13 +1652,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="9">
         <v>43201</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -1662,13 +1666,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="9">
         <v>43201</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -1676,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -1684,7 +1688,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -1692,10 +1696,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -1703,10 +1707,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -1714,10 +1718,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -1725,10 +1729,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -1736,10 +1740,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
@@ -1848,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.4">
@@ -1960,7 +1964,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -2045,7 +2049,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2059,7 +2063,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -2090,11 +2094,11 @@
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
+      <c r="D3" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2105,10 +2109,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11"/>
     </row>
@@ -2120,10 +2124,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="11"/>
     </row>
@@ -2135,10 +2139,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="11"/>
     </row>
@@ -2150,10 +2154,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="11"/>
     </row>
@@ -2165,10 +2169,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="11"/>
     </row>
@@ -2180,10 +2184,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -2197,7 +2201,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -2211,7 +2215,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -2225,7 +2229,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -2251,7 +2255,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -2262,10 +2266,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -2276,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2287,13 +2291,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2301,13 +2305,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2315,13 +2319,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2329,13 +2333,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2346,10 +2350,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2357,13 +2361,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2371,13 +2375,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2385,13 +2389,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2402,9 +2406,10 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{764F7935-10CD-489F-B05E-B42E2EB1FBC5}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{1FAB594C-6A12-476B-B2AB-751B3FC4CEE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2413,7 +2418,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2427,7 +2432,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -2456,10 +2461,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E3" s="7"/>
     </row>
@@ -2471,10 +2476,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -2486,10 +2491,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -2501,10 +2506,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -2516,10 +2521,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E7" s="7"/>
     </row>

--- a/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/02_論文/review_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_論文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_論文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD11761-01C5-4A8B-BF61-2756592D59D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB2186-E73A-43A4-AA2F-501CE62C896F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" activeTab="3" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" firstSheet="2" activeTab="2" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="不明単語リスト" sheetId="6" r:id="rId1"/>
@@ -956,6 +956,9 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -964,9 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1375,7 +1375,7 @@
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -1805,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B98AAD3-EF24-4168-8BE4-050B6A413801}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2048,8 +2048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42845210-D513-453D-ADDF-DA6DCCD60533}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2094,10 +2094,10 @@
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -2129,7 +2129,7 @@
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -2144,7 +2144,7 @@
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -2159,7 +2159,7 @@
       <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -2174,7 +2174,7 @@
       <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
@@ -2228,7 +2228,7 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
@@ -2417,7 +2417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285FAA71-71B7-4891-A30F-3304A2FBE70F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -2568,7 +2568,7 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
@@ -2577,7 +2577,7 @@
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
